--- a/data/long_razon/P24_2-Edad-long_razon.xlsx
+++ b/data/long_razon/P24_2-Edad-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>27,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-19,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>36,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-31,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>32,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-7,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-18,63%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-31,72; 130,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-56,82; 47,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-51,42; 78,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-18,86; 116,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-36,14; 90,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-60,38; 16,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 98,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-38,9; 37,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-45,98; 25,52</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +850,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>78,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>68,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>28,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-6,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>53,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>34,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-1,83%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +933,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,24; 279,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-23,87; 216,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-36,92; 97,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-29,38; 148,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-43,24; 86,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-39,36; 39,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 158,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-14,31; 110,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-27,9; 40,31</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +1020,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>36,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>47,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-39,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>73,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>59,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-17,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>54,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>52,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-28,86%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1103,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-34,6; 150,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,38; 149,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-66,5; -7,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,49; 182,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,43; 145,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-41,66; 17,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,5; 124,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,13; 113,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-47,48; -5,86</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1190,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>58,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>39,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-33,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>33,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>72,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-11,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>43,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>56,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-22,52%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1273,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,0; 154,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 112,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-56,4; -0,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,57; 112,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,34; 159,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-37,04; 20,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,11; 101,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,59; 105,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-41,75; 1,06</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1360,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>14,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>31,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-15,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>45,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>21,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>19,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>34,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>26,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1443,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-47,16; 146,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-31,01; 152,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-45,99; 38,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,53; 147,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-25,25; 112,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-20,93; 82,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-11,93; 97,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-15,78; 81,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-25,45; 37,19</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1530,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>124,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-41,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>13,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-6,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>76,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-9,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>26,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>11,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-1,69%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1613,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-18,61; 595,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-85,61; 30,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-43,77; 132,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-51,16; 64,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-9,12; 228,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-45,65; 44,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-23,88; 139,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-47,98; 77,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-34,38; 41,19</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1700,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>51,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>18,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-17,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>34,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>39,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-11,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>41,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>29,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-14,23%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1345,62 +1783,99 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,4; 101,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 51,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-33,8; 2,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,93; 61,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,44; 73,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-25,96; 4,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>20,39; 68,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,66; 52,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-25,97; -2,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/long_razon/P24_2-Edad-long_razon.xlsx
+++ b/data/long_razon/P24_2-Edad-long_razon.xlsx
@@ -683,21 +683,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
-      <c r="O4" s="5" t="inlineStr"/>
-      <c r="P4" s="5" t="inlineStr"/>
-      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>0.2248282453389618</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.3414372217889822</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.001722711150806258</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.330398658049351</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>2.837792204732135</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.2869980933933731</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.2948849127695419</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.3384148349176579</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>1.940472355982608</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.2377110735017606</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>0.2571266480695988</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>-0.08690815361897297</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>-0.1954114379970048</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>0.6124683939056977</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>0.9205489489896185</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -706,21 +736,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
-      <c r="O5" s="5" t="inlineStr"/>
-      <c r="P5" s="5" t="inlineStr"/>
-      <c r="Q5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.3615353938169986</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.6784887924884765</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.4574082581976767</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.7900964012702797</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.3171197715677262</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.2107196819452185</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.2538307660115066</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.61966746102945</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>0.8152842102521459</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.2829447266867662</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.1521381789715925</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.4321203874846863</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>-0.4695261059539362</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>0.02414378490800384</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>0.1126639333154255</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -729,21 +789,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
-      <c r="O6" s="5" t="inlineStr"/>
-      <c r="P6" s="5" t="inlineStr"/>
-      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>1.116346083740503</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.2373894767729059</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.9754615428281622</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.611573025877874</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>12.10810307637906</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1.144059916126272</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>1.327458187550161</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.1484915282032851</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>4.238259521183809</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>1.630795526783689</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.8769272795940867</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.3959307123212437</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>0.1773924259160221</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>1.500379323078525</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>2.199631171887799</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -756,21 +846,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
-      <c r="O7" s="5" t="inlineStr"/>
-      <c r="P7" s="5" t="inlineStr"/>
-      <c r="Q7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>0.9120891626626605</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.603743382497294</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.02741692092486561</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.480861341447159</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>1.134569654149631</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.2295972148925857</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.0166457830742825</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.08343560486027893</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.4865095864052631</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.09631854992510451</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.5709896476301559</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.2942714744847949</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>-0.0279740937642367</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>0.9313853727600635</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>0.4490564978906876</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -779,21 +899,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
-      <c r="O8" s="5" t="inlineStr"/>
-      <c r="P8" s="5" t="inlineStr"/>
-      <c r="Q8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.07593739949902809</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.2813159299417637</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.4165740334747299</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0.1650213702211121</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.387480256281191</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.30654768872654</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.4368368177202083</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.4063782184349812</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.05137517510774217</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.393419311055913</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.0170961241005763</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.1877299791659431</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>-0.307147092487479</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>0.2657578969649154</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>-0.1999178750772629</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -802,21 +952,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
-      <c r="O9" s="5" t="inlineStr"/>
-      <c r="P9" s="5" t="inlineStr"/>
-      <c r="Q9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>2.892302509452409</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.93806105090224</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.7401136153421057</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>4.991571762969381</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>9.914789931173482</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>1.330961960252617</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.7999696704560745</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.3957892854790933</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>1.631324843320963</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.9552459317380682</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>1.74425638023764</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.9586242257800088</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>0.3857684898496638</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>2.253702568832264</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>1.947405564712648</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -829,21 +1009,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
-      <c r="O10" s="5" t="inlineStr"/>
-      <c r="P10" s="5" t="inlineStr"/>
-      <c r="Q10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>0.3064314402854873</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.6540086254337294</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.4092063849198239</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.669590661298238</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.3585555616879236</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.6528154898608146</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.4974350598479378</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.1586917800933457</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.03016116946831963</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.4770451880241013</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0.4679097843638412</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.5791503236334069</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>-0.2842289774095104</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>0.273217510825196</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>0.02969322316495723</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -852,21 +1062,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
-      <c r="O11" s="5" t="inlineStr"/>
-      <c r="P11" s="5" t="inlineStr"/>
-      <c r="Q11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.3959749359014623</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.02248664794061687</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.648662162662533</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.0132609971948261</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.6915764343875738</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>0.1062409050982539</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.03709586015339205</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.4073980332756303</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.2843560019788777</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.06854049456285551</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.05427785048578895</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>0.09030990254451818</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>-0.4675454411524961</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>-0.07241112520752056</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>-0.319974677979309</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -875,21 +1115,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
-      <c r="O12" s="5" t="inlineStr"/>
-      <c r="P12" s="5" t="inlineStr"/>
-      <c r="Q12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>1.347163257959231</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.930120147266553</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-0.0883102123539402</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.814374756699511</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.2438198741697539</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>1.669738063615185</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1.305391864880398</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.1554691998401813</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.490587330466304</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>1.389512864251753</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>1.098259274342038</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>1.263416928345763</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>-0.05295780362022067</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>0.7456162760315008</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>0.5288635261449187</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -902,21 +1172,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
-      <c r="O13" s="5" t="inlineStr"/>
-      <c r="P13" s="5" t="inlineStr"/>
-      <c r="Q13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>0.6083228135641372</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.4078741694927621</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.2978740705722903</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.0170081604118688</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.1318155268199337</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.3347133567384279</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.691024968527633</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.1130869913728841</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.2498597523594801</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.02987237206347171</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.437719861401994</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.554001225652809</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>-0.2045692487945583</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>0.1374273996538255</v>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>-0.05877637822509101</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -925,21 +1225,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
-      <c r="O14" s="5" t="inlineStr"/>
-      <c r="P14" s="5" t="inlineStr"/>
-      <c r="Q14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.05735106861666443</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.06622218638655579</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.5226007199374985</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.3964278323713063</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.4883597933943324</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.07365168176573304</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.1307448075154329</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.3776263953768709</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.1464212108835727</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.3661471551449113</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>0.05372623538453095</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>0.1850356031621941</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>-0.3872587158648257</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>-0.1910558947754584</v>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>-0.355767695767923</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -948,21 +1278,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
-      <c r="O15" s="5" t="inlineStr"/>
-      <c r="P15" s="5" t="inlineStr"/>
-      <c r="Q15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>1.769006407495106</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.192296188012612</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.0584436802691526</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.7104320639304593</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.5233668150487216</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>1.079391301909094</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>1.494723365436629</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.2353079470166914</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.9243522269087051</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.6570945699564926</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.9423576754304495</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>1.14070626358747</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>0.04334635336593157</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>0.5377697179877758</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>0.3727694006109422</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -975,21 +1335,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr"/>
-      <c r="D16" s="5" t="inlineStr"/>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr"/>
-      <c r="G16" s="5" t="inlineStr"/>
-      <c r="H16" s="5" t="inlineStr"/>
-      <c r="I16" s="5" t="inlineStr"/>
-      <c r="J16" s="5" t="inlineStr"/>
-      <c r="K16" s="5" t="inlineStr"/>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr"/>
-      <c r="O16" s="5" t="inlineStr"/>
-      <c r="P16" s="5" t="inlineStr"/>
-      <c r="Q16" s="5" t="inlineStr"/>
+      <c r="C16" s="5" t="n">
+        <v>0.1728863169922057</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.3575169411781784</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.1618611199543616</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0.1825443302471472</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>-0.091290671566053</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>0.5177887847035894</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>0.1966764974578273</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>0.2114162587479475</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>-0.274265274613186</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>-0.2896700916865102</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>0.3912499901453815</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>0.2628023298474271</v>
+      </c>
+      <c r="O16" s="5" t="n">
+        <v>0.02972871316950825</v>
+      </c>
+      <c r="P16" s="5" t="n">
+        <v>-0.1127161536271133</v>
+      </c>
+      <c r="Q16" s="5" t="n">
+        <v>-0.1916246476315793</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -998,21 +1388,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr"/>
-      <c r="F17" s="5" t="inlineStr"/>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="inlineStr"/>
-      <c r="K17" s="5" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="inlineStr"/>
-      <c r="O17" s="5" t="inlineStr"/>
-      <c r="P17" s="5" t="inlineStr"/>
-      <c r="Q17" s="5" t="inlineStr"/>
+      <c r="C17" s="5" t="n">
+        <v>-0.417675669217581</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-0.3050415103645205</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-0.4820164345407238</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-0.362252645239452</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-0.4737074938729984</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-0.06066733215518672</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>-0.307304446300978</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>-0.2172898070209183</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>-0.6100681591802487</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>-0.5815576372161714</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>-0.06111497581529207</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>-0.133755491937524</v>
+      </c>
+      <c r="O17" s="5" t="n">
+        <v>-0.2479157050255593</v>
+      </c>
+      <c r="P17" s="5" t="n">
+        <v>-0.4210360438192519</v>
+      </c>
+      <c r="Q17" s="5" t="n">
+        <v>-0.4294989330587679</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -1021,21 +1441,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr"/>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr"/>
-      <c r="O18" s="5" t="inlineStr"/>
-      <c r="P18" s="5" t="inlineStr"/>
-      <c r="Q18" s="5" t="inlineStr"/>
+      <c r="C18" s="5" t="n">
+        <v>1.553871646251697</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>1.532314521398538</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.3650246415443333</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>1.267114440163856</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.5118462188709314</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>1.55074358274866</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>1.001730834864898</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>0.81655421715734</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>0.21946211328355</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>0.2147584114226382</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>1.120941727771202</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>0.9307412863078968</v>
+      </c>
+      <c r="O18" s="5" t="n">
+        <v>0.3811371294666225</v>
+      </c>
+      <c r="P18" s="5" t="n">
+        <v>0.3321449147942186</v>
+      </c>
+      <c r="Q18" s="5" t="n">
+        <v>0.1873083257221163</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1048,21 +1498,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr"/>
-      <c r="D19" s="5" t="inlineStr"/>
-      <c r="E19" s="5" t="inlineStr"/>
-      <c r="F19" s="5" t="inlineStr"/>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr"/>
-      <c r="I19" s="5" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr"/>
-      <c r="L19" s="5" t="inlineStr"/>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr"/>
-      <c r="O19" s="5" t="inlineStr"/>
-      <c r="P19" s="5" t="inlineStr"/>
-      <c r="Q19" s="5" t="inlineStr"/>
+      <c r="C19" s="5" t="n">
+        <v>1.177498759987012</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-0.437376283437321</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.05692514646248412</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>-0.280183075474884</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>8.477258318711565</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>-0.009201954241076091</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>0.8411351984256126</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>-0.06445969493349875</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>0.3452316005619823</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>0.8339696770101727</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>0.290508253755081</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>0.1210572481349242</v>
+      </c>
+      <c r="O19" s="5" t="n">
+        <v>-0.02335454213139157</v>
+      </c>
+      <c r="P19" s="5" t="n">
+        <v>0.09296584876622663</v>
+      </c>
+      <c r="Q19" s="5" t="n">
+        <v>1.714084868861296</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -1071,21 +1551,49 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr"/>
+      <c r="C20" s="5" t="n">
+        <v>-0.2157365828620326</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-0.8570761655397405</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-0.5184192097130749</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-0.7175515699040711</v>
+      </c>
       <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-      <c r="I20" s="5" t="inlineStr"/>
-      <c r="J20" s="5" t="inlineStr"/>
-      <c r="K20" s="5" t="inlineStr"/>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr"/>
-      <c r="O20" s="5" t="inlineStr"/>
-      <c r="P20" s="5" t="inlineStr"/>
-      <c r="Q20" s="5" t="inlineStr"/>
+      <c r="H20" s="5" t="n">
+        <v>-0.4466106483601877</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>-0.07503220663935296</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>-0.4098873734971923</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>-0.3723019916515795</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>-0.2343213678387801</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>-0.1917304887933777</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>-0.4346163797276831</v>
+      </c>
+      <c r="O20" s="5" t="n">
+        <v>-0.3589546719647735</v>
+      </c>
+      <c r="P20" s="5" t="n">
+        <v>-0.372699244547653</v>
+      </c>
+      <c r="Q20" s="5" t="n">
+        <v>0.304353950993289</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1094,21 +1602,49 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr"/>
-      <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr"/>
-      <c r="F21" s="5" t="inlineStr"/>
+      <c r="C21" s="5" t="n">
+        <v>5.840301568234747</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>0.3647890835338909</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>0.9847430361812647</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>0.9158419162981756</v>
+      </c>
       <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="inlineStr"/>
-      <c r="K21" s="5" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr"/>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr"/>
-      <c r="O21" s="5" t="inlineStr"/>
-      <c r="P21" s="5" t="inlineStr"/>
-      <c r="Q21" s="5" t="inlineStr"/>
+      <c r="H21" s="5" t="n">
+        <v>0.8864181484135901</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>2.383563217561922</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>0.5589098528524191</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>1.808726133085861</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>4.201013068950741</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>1.403947490780593</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>0.9361798465529571</v>
+      </c>
+      <c r="O21" s="5" t="n">
+        <v>0.4367508111499906</v>
+      </c>
+      <c r="P21" s="5" t="n">
+        <v>1.027783977958439</v>
+      </c>
+      <c r="Q21" s="5" t="n">
+        <v>4.779643707467434</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1121,21 +1657,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr"/>
-      <c r="D22" s="5" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr"/>
-      <c r="G22" s="5" t="inlineStr"/>
-      <c r="H22" s="5" t="inlineStr"/>
-      <c r="I22" s="5" t="inlineStr"/>
-      <c r="J22" s="5" t="inlineStr"/>
-      <c r="K22" s="5" t="inlineStr"/>
-      <c r="L22" s="5" t="inlineStr"/>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr"/>
-      <c r="O22" s="5" t="inlineStr"/>
-      <c r="P22" s="5" t="inlineStr"/>
-      <c r="Q22" s="5" t="inlineStr"/>
+      <c r="C22" s="5" t="n">
+        <v>0.5050125023007863</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.1560542784754781</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.1732087594162619</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.2648362343819712</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.3662732442904889</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>0.3281384416818808</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>0.4251862427668445</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>-0.1111219653381423</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>0.3651653283617579</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>0.1966471594336784</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>0.4039972520887901</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>0.2846410114047013</v>
+      </c>
+      <c r="O22" s="5" t="n">
+        <v>-0.1397037806809381</v>
+      </c>
+      <c r="P22" s="5" t="n">
+        <v>0.3207835055790867</v>
+      </c>
+      <c r="Q22" s="5" t="n">
+        <v>0.2703700473409469</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1144,21 +1710,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="inlineStr"/>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="inlineStr"/>
-      <c r="K23" s="5" t="inlineStr"/>
-      <c r="L23" s="5" t="inlineStr"/>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr"/>
-      <c r="O23" s="5" t="inlineStr"/>
-      <c r="P23" s="5" t="inlineStr"/>
-      <c r="Q23" s="5" t="inlineStr"/>
+      <c r="C23" s="5" t="n">
+        <v>0.1289844295100071</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.1228976397842907</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.3283818615930154</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-0.039570299978989</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.01041262882812496</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>0.07847848395750436</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>0.160007187021649</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>-0.2577637217696553</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>0.09137945919980377</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>-0.04061899346934032</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>0.1653807442909166</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>0.07773856095988414</v>
+      </c>
+      <c r="O23" s="5" t="n">
+        <v>-0.2520384133636145</v>
+      </c>
+      <c r="P23" s="5" t="n">
+        <v>0.1332849154151976</v>
+      </c>
+      <c r="Q23" s="5" t="n">
+        <v>0.05778524364186686</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1167,21 +1763,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="inlineStr"/>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="inlineStr"/>
-      <c r="K24" s="5" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr"/>
-      <c r="O24" s="5" t="inlineStr"/>
-      <c r="P24" s="5" t="inlineStr"/>
-      <c r="Q24" s="5" t="inlineStr"/>
+      <c r="C24" s="5" t="n">
+        <v>1.063244756627582</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.5128059570376162</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.02546090976587351</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.7451154977720197</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.8906775756980699</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>0.6359256228465332</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>0.7540723269586264</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>0.03292891572245232</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>0.6493327810801093</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>0.5530368989121267</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>0.6450139145896272</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>0.5236507050732482</v>
+      </c>
+      <c r="O24" s="5" t="n">
+        <v>-0.006283499960607252</v>
+      </c>
+      <c r="P24" s="5" t="n">
+        <v>0.556032813612963</v>
+      </c>
+      <c r="Q24" s="5" t="n">
+        <v>0.5368033500444128</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
